--- a/Code/Results/Cases/Case_1_153/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_153/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.991010238200289</v>
+        <v>1.189921424373097</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06308049700737151</v>
+        <v>0.1170785113430952</v>
       </c>
       <c r="E2">
-        <v>0.1091188301206394</v>
+        <v>0.1342225034446365</v>
       </c>
       <c r="F2">
-        <v>2.083680833936256</v>
+        <v>2.299143291757318</v>
       </c>
       <c r="G2">
-        <v>0.0008191336202157951</v>
+        <v>0.002544690869663589</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.347035604326152</v>
+        <v>0.9768027924936291</v>
       </c>
       <c r="L2">
-        <v>0.2569441619442188</v>
+        <v>0.2011692857141156</v>
       </c>
       <c r="M2">
-        <v>0.2614086638717019</v>
+        <v>0.2709987220115515</v>
       </c>
       <c r="N2">
-        <v>2.093810002181641</v>
+        <v>3.409348728329093</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8926796542293118</v>
+        <v>1.170942302046143</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06508672217446332</v>
+        <v>0.1175843156271625</v>
       </c>
       <c r="E3">
-        <v>0.1024598067371656</v>
+        <v>0.1320792103635089</v>
       </c>
       <c r="F3">
-        <v>1.916902742116349</v>
+        <v>2.265056052188172</v>
       </c>
       <c r="G3">
-        <v>0.0008268423625883468</v>
+        <v>0.002549534415284718</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.02529373331609</v>
+        <v>0.8949374470610394</v>
       </c>
       <c r="L3">
-        <v>0.2256066571262068</v>
+        <v>0.1942138136348603</v>
       </c>
       <c r="M3">
-        <v>0.2330483122681173</v>
+        <v>0.2651847245926753</v>
       </c>
       <c r="N3">
-        <v>2.102793441051588</v>
+        <v>3.415377617336276</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8335621741210559</v>
+        <v>1.159897357817812</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.06635859807828126</v>
+        <v>0.1179106796052896</v>
       </c>
       <c r="E4">
-        <v>0.09842502718502821</v>
+        <v>0.1307364254393182</v>
       </c>
       <c r="F4">
-        <v>1.818022308995609</v>
+        <v>2.245257393689243</v>
       </c>
       <c r="G4">
-        <v>0.0008317111274779299</v>
+        <v>0.002552665839556659</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.83068520449072</v>
+        <v>0.8452283808001653</v>
       </c>
       <c r="L4">
-        <v>0.2067257742090618</v>
+        <v>0.19006707922874</v>
       </c>
       <c r="M4">
-        <v>0.2159816042412892</v>
+        <v>0.261764430451791</v>
       </c>
       <c r="N4">
-        <v>2.110352045976541</v>
+        <v>3.419835966827264</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8097614928263965</v>
+        <v>1.155549602475219</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.06688668804838116</v>
+        <v>0.1180476455209352</v>
       </c>
       <c r="E5">
-        <v>0.09679099504112365</v>
+        <v>0.1301824095485244</v>
       </c>
       <c r="F5">
-        <v>1.778536828452772</v>
+        <v>2.237472949194014</v>
       </c>
       <c r="G5">
-        <v>0.0008337305363139971</v>
+        <v>0.002553981648961803</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.752018515901398</v>
+        <v>0.8251103648763092</v>
       </c>
       <c r="L5">
-        <v>0.1991125840129087</v>
+        <v>0.1884083653463478</v>
       </c>
       <c r="M5">
-        <v>0.2091059420096428</v>
+        <v>0.2604082434075927</v>
       </c>
       <c r="N5">
-        <v>2.113921414544365</v>
+        <v>3.421842780764919</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8058262035119412</v>
+        <v>1.154836916367032</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.06697496074940901</v>
+        <v>0.1180706283090274</v>
       </c>
       <c r="E6">
-        <v>0.09652018686719899</v>
+        <v>0.1300900013125901</v>
       </c>
       <c r="F6">
-        <v>1.772027032712202</v>
+        <v>2.236197459650398</v>
       </c>
       <c r="G6">
-        <v>0.0008340680277331887</v>
+        <v>0.002554202541368117</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.73899166362736</v>
+        <v>0.8217781362181995</v>
       </c>
       <c r="L6">
-        <v>0.1978530363750224</v>
+        <v>0.1881348148125284</v>
       </c>
       <c r="M6">
-        <v>0.207968801079037</v>
+        <v>0.2601853215495886</v>
       </c>
       <c r="N6">
-        <v>2.114542968915643</v>
+        <v>3.422187479010518</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8332400481486957</v>
+        <v>1.159838102129072</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.06636568078884153</v>
+        <v>0.1179125107051355</v>
       </c>
       <c r="E7">
-        <v>0.0984029531015338</v>
+        <v>0.1307289815083603</v>
       </c>
       <c r="F7">
-        <v>1.81748661497754</v>
+        <v>2.245151262372445</v>
       </c>
       <c r="G7">
-        <v>0.0008317382172544064</v>
+        <v>0.002552683424373395</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.829621824458428</v>
+        <v>0.8449565015527014</v>
       </c>
       <c r="L7">
-        <v>0.2066227847418531</v>
+        <v>0.190044583325232</v>
       </c>
       <c r="M7">
-        <v>0.2158885663183661</v>
+        <v>0.2617459881391468</v>
       </c>
       <c r="N7">
-        <v>2.11039823410789</v>
+        <v>3.419862262471483</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9568284422401803</v>
+        <v>1.183251267409901</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06376375323926986</v>
+        <v>0.1172496321936762</v>
       </c>
       <c r="E8">
-        <v>0.1068094787924707</v>
+        <v>0.1334890069282135</v>
       </c>
       <c r="F8">
-        <v>2.025396811092378</v>
+        <v>2.287154799186666</v>
       </c>
       <c r="G8">
-        <v>0.0008217642437146551</v>
+        <v>0.002546328321201453</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.235424357232063</v>
+        <v>0.9484593938609009</v>
       </c>
       <c r="L8">
-        <v>0.2460580876377776</v>
+        <v>0.1987452761203485</v>
       </c>
       <c r="M8">
-        <v>0.2515530544261821</v>
+        <v>0.2689630260727824</v>
       </c>
       <c r="N8">
-        <v>2.096468198920903</v>
+        <v>3.411270306209516</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.210455454054653</v>
+        <v>1.233987098606548</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05899355762547387</v>
+        <v>0.1160751844918586</v>
       </c>
       <c r="E9">
-        <v>0.123893394520918</v>
+        <v>0.1386927040949839</v>
       </c>
       <c r="F9">
-        <v>2.464846130449544</v>
+        <v>2.378538442708759</v>
       </c>
       <c r="G9">
-        <v>0.0008032190232881087</v>
+        <v>0.002535109410193242</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.059621912578621</v>
+        <v>1.155906865955899</v>
       </c>
       <c r="L9">
-        <v>0.3267323342432178</v>
+        <v>0.2167945242097744</v>
       </c>
       <c r="M9">
-        <v>0.3246375144414344</v>
+        <v>0.2843026738090728</v>
       </c>
       <c r="N9">
-        <v>2.08656672904155</v>
+        <v>3.400437120397086</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.405644918037893</v>
+        <v>1.274203383047904</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05571484593598797</v>
+        <v>0.115288923342149</v>
       </c>
       <c r="E10">
-        <v>0.1370816508689927</v>
+        <v>0.1423942765785355</v>
       </c>
       <c r="F10">
-        <v>2.812917734051723</v>
+        <v>2.451240019730619</v>
       </c>
       <c r="G10">
-        <v>0.0007901168236807579</v>
+        <v>0.002527616482589395</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.690356914123583</v>
+        <v>1.311151795353283</v>
       </c>
       <c r="L10">
-        <v>0.3887839016492336</v>
+        <v>0.2306640182699766</v>
       </c>
       <c r="M10">
-        <v>0.3808595970806437</v>
+        <v>0.2962989841750527</v>
       </c>
       <c r="N10">
-        <v>2.09176514340615</v>
+        <v>3.396164173540001</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.496856995103457</v>
+        <v>1.293137956132881</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0542787828272111</v>
+        <v>0.1149478975028835</v>
       </c>
       <c r="E11">
-        <v>0.1432910797989422</v>
+        <v>0.14405305822849</v>
       </c>
       <c r="F11">
-        <v>2.978222313570541</v>
+        <v>2.485536696830792</v>
       </c>
       <c r="G11">
-        <v>0.0007842460593602934</v>
+        <v>0.002524368729715178</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.984766277035874</v>
+        <v>1.382415361999961</v>
       </c>
       <c r="L11">
-        <v>0.4178037255712326</v>
+        <v>0.2371073997377806</v>
       </c>
       <c r="M11">
-        <v>0.4071376621328611</v>
+        <v>0.3019148095152389</v>
       </c>
       <c r="N11">
-        <v>2.097308042434378</v>
+        <v>3.39502500060081</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.531790420426603</v>
+        <v>1.300399949649687</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05374361691925955</v>
+        <v>0.1148211578882083</v>
       </c>
       <c r="E12">
-        <v>0.1456796339331277</v>
+        <v>0.1446776851010689</v>
       </c>
       <c r="F12">
-        <v>3.041960878062099</v>
+        <v>2.498701060620562</v>
       </c>
       <c r="G12">
-        <v>0.0007820335975491416</v>
+        <v>0.002523161878719021</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>4.097517271308789</v>
+        <v>1.40949488719906</v>
       </c>
       <c r="L12">
-        <v>0.4289243031641377</v>
+        <v>0.2395667183419476</v>
       </c>
       <c r="M12">
-        <v>0.4172037142301264</v>
+        <v>0.3040642131454092</v>
       </c>
       <c r="N12">
-        <v>2.099908636594634</v>
+        <v>3.394709663160782</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.524248608987961</v>
+        <v>1.298831865243045</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.05385847836424773</v>
+        <v>0.1148483467246706</v>
       </c>
       <c r="E13">
-        <v>0.1451634404648132</v>
+        <v>0.1445433155523617</v>
       </c>
       <c r="F13">
-        <v>3.028180473148751</v>
+        <v>2.495857994753351</v>
       </c>
       <c r="G13">
-        <v>0.0007825096540193989</v>
+        <v>0.002523420774710118</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>4.07317484107341</v>
+        <v>1.403658645614371</v>
       </c>
       <c r="L13">
-        <v>0.4265231437331352</v>
+        <v>0.2390361983609353</v>
       </c>
       <c r="M13">
-        <v>0.4150304481201772</v>
+        <v>0.3036002860148415</v>
       </c>
       <c r="N13">
-        <v>2.099325475605312</v>
+        <v>3.394772410206386</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.499722826835551</v>
+        <v>1.293733564091156</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.05423457702161372</v>
+        <v>0.1149374224376523</v>
       </c>
       <c r="E14">
-        <v>0.1434867988750526</v>
+        <v>0.1441045166441874</v>
       </c>
       <c r="F14">
-        <v>2.983442390187946</v>
+        <v>2.486616185318951</v>
       </c>
       <c r="G14">
-        <v>0.0007840638383878061</v>
+        <v>0.002524268981091439</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.994015865376355</v>
+        <v>1.384641328491341</v>
       </c>
       <c r="L14">
-        <v>0.4187158814194447</v>
+        <v>0.2373093411549547</v>
       </c>
       <c r="M14">
-        <v>0.4079634086567339</v>
+        <v>0.3020911850464856</v>
       </c>
       <c r="N14">
-        <v>2.097511667423461</v>
+        <v>3.39499672996439</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.48475274164386</v>
+        <v>1.290622668839717</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0544660952190803</v>
+        <v>0.1149922965323356</v>
       </c>
       <c r="E15">
-        <v>0.1424648735752498</v>
+        <v>0.1438352841898265</v>
       </c>
       <c r="F15">
-        <v>2.956192085338131</v>
+        <v>2.48097838192939</v>
       </c>
       <c r="G15">
-        <v>0.0007850171411671703</v>
+        <v>0.002524791524136795</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.945699366985309</v>
+        <v>1.373004894492453</v>
       </c>
       <c r="L15">
-        <v>0.4139513729958821</v>
+        <v>0.2362541132729916</v>
       </c>
       <c r="M15">
-        <v>0.4036500806038319</v>
+        <v>0.3011697879999318</v>
       </c>
       <c r="N15">
-        <v>2.096467396378884</v>
+        <v>3.395149254663934</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.399736457825242</v>
+        <v>1.272978829574157</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.05580986624128315</v>
+        <v>0.1153115456495115</v>
       </c>
       <c r="E16">
-        <v>0.1366806501601054</v>
+        <v>0.1422853741686083</v>
       </c>
       <c r="F16">
-        <v>2.802266421159544</v>
+        <v>2.449023364705681</v>
       </c>
       <c r="G16">
-        <v>0.0007905021103765483</v>
+        <v>0.002527831956374576</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.671282766606737</v>
+        <v>1.306507576933257</v>
       </c>
       <c r="L16">
-        <v>0.3869047789893898</v>
+        <v>0.2302456320492325</v>
       </c>
       <c r="M16">
-        <v>0.3791575692032723</v>
+        <v>0.2959351690371221</v>
       </c>
       <c r="N16">
-        <v>2.09147055039179</v>
+        <v>3.396254840990537</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.348232262876451</v>
+        <v>1.262318714485986</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.05664886723285534</v>
+        <v>0.1155116624743151</v>
       </c>
       <c r="E17">
-        <v>0.1331906663996243</v>
+        <v>0.1413281934693646</v>
       </c>
       <c r="F17">
-        <v>2.709716317594115</v>
+        <v>2.429734217792458</v>
       </c>
       <c r="G17">
-        <v>0.0007938883935271486</v>
+        <v>0.002529738264852992</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.504981123890047</v>
+        <v>1.265878914584789</v>
       </c>
       <c r="L17">
-        <v>0.3705273067299117</v>
+        <v>0.2265940131647852</v>
       </c>
       <c r="M17">
-        <v>0.3643216694483229</v>
+        <v>0.2927645316007315</v>
       </c>
       <c r="N17">
-        <v>2.089249289529874</v>
+        <v>3.397139403233055</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.318833145925367</v>
+        <v>1.256247545027662</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.05713661065067654</v>
+        <v>0.1156283310526973</v>
       </c>
       <c r="E18">
-        <v>0.1312026161657087</v>
+        <v>0.1407752822032275</v>
       </c>
       <c r="F18">
-        <v>2.657130256430918</v>
+        <v>2.418754799404326</v>
       </c>
       <c r="G18">
-        <v>0.0007958446628444234</v>
+        <v>0.002530849867085608</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3.41002080856731</v>
+        <v>1.242570721971617</v>
       </c>
       <c r="L18">
-        <v>0.3611808320057861</v>
+        <v>0.2245063144577415</v>
       </c>
       <c r="M18">
-        <v>0.3558536302045852</v>
+        <v>0.2909557970226615</v>
       </c>
       <c r="N18">
-        <v>2.088267860963896</v>
+        <v>3.39772389325951</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.308916399800609</v>
+        <v>1.254202303373063</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.05730262192329505</v>
+        <v>0.1156681019436796</v>
       </c>
       <c r="E19">
-        <v>0.1305326139975911</v>
+        <v>0.1405876668476296</v>
       </c>
       <c r="F19">
-        <v>2.639432528162246</v>
+        <v>2.415057113732274</v>
       </c>
       <c r="G19">
-        <v>0.0007965085567632674</v>
+        <v>0.002531228841180971</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3.377982352076515</v>
+        <v>1.234689293733879</v>
       </c>
       <c r="L19">
-        <v>0.3580283845390397</v>
+        <v>0.2238016202507538</v>
       </c>
       <c r="M19">
-        <v>0.3529972864038058</v>
+        <v>0.2903459552273375</v>
       </c>
       <c r="N19">
-        <v>2.087985158985731</v>
+        <v>3.397934785061622</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.353691399078173</v>
+        <v>1.263447267712792</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.05655901434608168</v>
+        <v>0.1154901975138714</v>
       </c>
       <c r="E20">
-        <v>0.133560136673907</v>
+        <v>0.1414303312402936</v>
       </c>
       <c r="F20">
-        <v>2.719500582980487</v>
+        <v>2.43177565241777</v>
       </c>
       <c r="G20">
-        <v>0.0007935270462085261</v>
+        <v>0.002529533768597935</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.522611306882823</v>
+        <v>1.270197651085596</v>
       </c>
       <c r="L20">
-        <v>0.3722629982253807</v>
+        <v>0.2269814280344207</v>
       </c>
       <c r="M20">
-        <v>0.3658941332280605</v>
+        <v>0.2931005059496599</v>
       </c>
       <c r="N20">
-        <v>2.089454786025257</v>
+        <v>3.397037401641214</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.506915580125053</v>
+        <v>1.295228566231316</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.05412386736146146</v>
+        <v>0.1149111935765923</v>
       </c>
       <c r="E21">
-        <v>0.1439781994673091</v>
+        <v>0.14423349727603</v>
       </c>
       <c r="F21">
-        <v>2.996550878192664</v>
+        <v>2.489325919027493</v>
       </c>
       <c r="G21">
-        <v>0.0007836070660578816</v>
+        <v>0.002524019218948239</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>4.017230841145647</v>
+        <v>1.3902246262208</v>
       </c>
       <c r="L21">
-        <v>0.4210053481226765</v>
+        <v>0.237816035263009</v>
       </c>
       <c r="M21">
-        <v>0.4100359248106855</v>
+        <v>0.3025338254536507</v>
       </c>
       <c r="N21">
-        <v>2.098030431398172</v>
+        <v>3.394927689707984</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.609374200084517</v>
+        <v>1.316534973661817</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.05258311329320264</v>
+        <v>0.1145467696973483</v>
       </c>
       <c r="E22">
-        <v>0.1510077163588903</v>
+        <v>0.1460450662916557</v>
       </c>
       <c r="F22">
-        <v>3.18434902876092</v>
+        <v>2.527970208222598</v>
       </c>
       <c r="G22">
-        <v>0.00077718476557638</v>
+        <v>0.002520549161706307</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>4.347968694839778</v>
+        <v>1.469215125112328</v>
       </c>
       <c r="L22">
-        <v>0.4536368150833852</v>
+        <v>0.2450098968630101</v>
       </c>
       <c r="M22">
-        <v>0.4395638656265248</v>
+        <v>0.3088320144231105</v>
       </c>
       <c r="N22">
-        <v>2.106583567240676</v>
+        <v>3.394225418250301</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.554461686854722</v>
+        <v>1.305114392858513</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.05340054769603597</v>
+        <v>0.1147399877405419</v>
       </c>
       <c r="E23">
-        <v>0.1472331552529873</v>
+        <v>0.1450800404104449</v>
       </c>
       <c r="F23">
-        <v>3.083451194341137</v>
+        <v>2.50725030905997</v>
       </c>
       <c r="G23">
-        <v>0.0007806076829421844</v>
+        <v>0.002522388974143132</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>4.170695308114148</v>
+        <v>1.427006035469446</v>
       </c>
       <c r="L23">
-        <v>0.4361435098638111</v>
+        <v>0.2411600511252772</v>
       </c>
       <c r="M23">
-        <v>0.4237370578111239</v>
+        <v>0.3054583854466131</v>
       </c>
       <c r="N23">
-        <v>2.101732662827729</v>
+        <v>3.394538215667268</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.351222668729491</v>
+        <v>1.262936869768509</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0565996200949499</v>
+        <v>0.1154998967802001</v>
       </c>
       <c r="E24">
-        <v>0.1333930424022824</v>
+        <v>0.1413841629090697</v>
       </c>
       <c r="F24">
-        <v>2.715075188855792</v>
+        <v>2.43085237671977</v>
       </c>
       <c r="G24">
-        <v>0.0007936903818313333</v>
+        <v>0.002529626172482576</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.514638694485768</v>
+        <v>1.26824499540021</v>
       </c>
       <c r="L24">
-        <v>0.3714780780017293</v>
+        <v>0.2268062414411247</v>
       </c>
       <c r="M24">
-        <v>0.3651830324116219</v>
+        <v>0.2929485680050377</v>
       </c>
       <c r="N24">
-        <v>2.089360963627698</v>
+        <v>3.397083280015309</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.140442798139333</v>
+        <v>1.219745363252144</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.06024626501281993</v>
+        <v>0.1163794609581466</v>
       </c>
       <c r="E25">
-        <v>0.1191816788125699</v>
+        <v>0.1373067288337122</v>
       </c>
       <c r="F25">
-        <v>2.341996938625016</v>
+        <v>2.352844838486533</v>
       </c>
       <c r="G25">
-        <v>0.0008081367386362226</v>
+        <v>0.002538012178442696</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.832849035406952</v>
+        <v>1.099296781303536</v>
       </c>
       <c r="L25">
-        <v>0.3044777995437329</v>
+        <v>0.2118053314559063</v>
       </c>
       <c r="M25">
-        <v>0.3044700281669108</v>
+        <v>0.2800255455665663</v>
       </c>
       <c r="N25">
-        <v>2.087200764066566</v>
+        <v>3.402721836176283</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_153/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_153/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.189921424373097</v>
+        <v>0.9910102382003458</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1170785113430952</v>
+        <v>0.06308049700727558</v>
       </c>
       <c r="E2">
-        <v>0.1342225034446365</v>
+        <v>0.1091188301206323</v>
       </c>
       <c r="F2">
-        <v>2.299143291757318</v>
+        <v>2.083680833936256</v>
       </c>
       <c r="G2">
-        <v>0.002544690869663589</v>
+        <v>0.0008191336202101329</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9768027924936291</v>
+        <v>2.347035604326237</v>
       </c>
       <c r="L2">
-        <v>0.2011692857141156</v>
+        <v>0.2569441619441903</v>
       </c>
       <c r="M2">
-        <v>0.2709987220115515</v>
+        <v>0.2614086638717268</v>
       </c>
       <c r="N2">
-        <v>3.409348728329093</v>
+        <v>2.093810002181513</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.170942302046143</v>
+        <v>0.8926796542293971</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1175843156271625</v>
+        <v>0.0650867221742466</v>
       </c>
       <c r="E3">
-        <v>0.1320792103635089</v>
+        <v>0.1024598067371407</v>
       </c>
       <c r="F3">
-        <v>2.265056052188172</v>
+        <v>1.916902742116321</v>
       </c>
       <c r="G3">
-        <v>0.002549534415284718</v>
+        <v>0.0008268423626059951</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8949374470610394</v>
+        <v>2.025293733316005</v>
       </c>
       <c r="L3">
-        <v>0.1942138136348603</v>
+        <v>0.2256066571262494</v>
       </c>
       <c r="M3">
-        <v>0.2651847245926753</v>
+        <v>0.233048312268096</v>
       </c>
       <c r="N3">
-        <v>3.415377617336276</v>
+        <v>2.10279344105156</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.159897357817812</v>
+        <v>0.8335621741213117</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1179106796052896</v>
+        <v>0.06635859807837718</v>
       </c>
       <c r="E4">
-        <v>0.1307364254393182</v>
+        <v>0.09842502718503354</v>
       </c>
       <c r="F4">
-        <v>2.245257393689243</v>
+        <v>1.818022308995637</v>
       </c>
       <c r="G4">
-        <v>0.002552665839556659</v>
+        <v>0.0008317111275545502</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8452283808001653</v>
+        <v>1.83068520449072</v>
       </c>
       <c r="L4">
-        <v>0.19006707922874</v>
+        <v>0.206725774209005</v>
       </c>
       <c r="M4">
-        <v>0.261764430451791</v>
+        <v>0.2159816042412892</v>
       </c>
       <c r="N4">
-        <v>3.419835966827264</v>
+        <v>2.110352045976555</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.155549602475219</v>
+        <v>0.8097614928263965</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1180476455209352</v>
+        <v>0.06688668804837938</v>
       </c>
       <c r="E5">
-        <v>0.1301824095485244</v>
+        <v>0.09679099504112543</v>
       </c>
       <c r="F5">
-        <v>2.237472949194014</v>
+        <v>1.778536828452772</v>
       </c>
       <c r="G5">
-        <v>0.002553981648961803</v>
+        <v>0.000833730536343958</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8251103648763092</v>
+        <v>1.752018515901398</v>
       </c>
       <c r="L5">
-        <v>0.1884083653463478</v>
+        <v>0.1991125840128376</v>
       </c>
       <c r="M5">
-        <v>0.2604082434075927</v>
+        <v>0.2091059420096393</v>
       </c>
       <c r="N5">
-        <v>3.421842780764919</v>
+        <v>2.113921414544421</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.154836916367032</v>
+        <v>0.8058262035118275</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1180706283090274</v>
+        <v>0.06697496074943921</v>
       </c>
       <c r="E6">
-        <v>0.1300900013125901</v>
+        <v>0.09652018686720076</v>
       </c>
       <c r="F6">
-        <v>2.236197459650398</v>
+        <v>1.772027032712188</v>
       </c>
       <c r="G6">
-        <v>0.002554202541368117</v>
+        <v>0.000834068027779202</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8217781362181995</v>
+        <v>1.738991663627331</v>
       </c>
       <c r="L6">
-        <v>0.1881348148125284</v>
+        <v>0.1978530363749371</v>
       </c>
       <c r="M6">
-        <v>0.2601853215495886</v>
+        <v>0.2079688010790299</v>
       </c>
       <c r="N6">
-        <v>3.422187479010518</v>
+        <v>2.114542968915586</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.159838102129072</v>
+        <v>0.8332400481486104</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1179125107051355</v>
+        <v>0.06636568078885219</v>
       </c>
       <c r="E7">
-        <v>0.1307289815083603</v>
+        <v>0.09840295310154801</v>
       </c>
       <c r="F7">
-        <v>2.245151262372445</v>
+        <v>1.81748661497754</v>
       </c>
       <c r="G7">
-        <v>0.002552683424373395</v>
+        <v>0.0008317382172550226</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8449565015527014</v>
+        <v>1.8296218244584</v>
       </c>
       <c r="L7">
-        <v>0.190044583325232</v>
+        <v>0.2066227847418105</v>
       </c>
       <c r="M7">
-        <v>0.2617459881391468</v>
+        <v>0.2158885663183696</v>
       </c>
       <c r="N7">
-        <v>3.419862262471483</v>
+        <v>2.110398234107819</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.183251267409901</v>
+        <v>0.9568284422401234</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1172496321936762</v>
+        <v>0.06376375323907624</v>
       </c>
       <c r="E8">
-        <v>0.1334890069282135</v>
+        <v>0.1068094787924636</v>
       </c>
       <c r="F8">
-        <v>2.287154799186666</v>
+        <v>2.025396811092364</v>
       </c>
       <c r="G8">
-        <v>0.002546328321201453</v>
+        <v>0.0008217642439345376</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9484593938609009</v>
+        <v>2.235424357232091</v>
       </c>
       <c r="L8">
-        <v>0.1987452761203485</v>
+        <v>0.2460580876377776</v>
       </c>
       <c r="M8">
-        <v>0.2689630260727824</v>
+        <v>0.2515530544261892</v>
       </c>
       <c r="N8">
-        <v>3.411270306209516</v>
+        <v>2.096468198920888</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.233987098606548</v>
+        <v>1.210455454054511</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1160751844918586</v>
+        <v>0.05899355762548453</v>
       </c>
       <c r="E9">
-        <v>0.1386927040949839</v>
+        <v>0.1238933945209642</v>
       </c>
       <c r="F9">
-        <v>2.378538442708759</v>
+        <v>2.464846130449558</v>
       </c>
       <c r="G9">
-        <v>0.002535109410193242</v>
+        <v>0.0008032190233464067</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.155906865955899</v>
+        <v>3.059621912578677</v>
       </c>
       <c r="L9">
-        <v>0.2167945242097744</v>
+        <v>0.3267323342432178</v>
       </c>
       <c r="M9">
-        <v>0.2843026738090728</v>
+        <v>0.3246375144414415</v>
       </c>
       <c r="N9">
-        <v>3.400437120397086</v>
+        <v>2.086566729041621</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.274203383047904</v>
+        <v>1.405644918038178</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.115288923342149</v>
+        <v>0.05571484593598086</v>
       </c>
       <c r="E10">
-        <v>0.1423942765785355</v>
+        <v>0.1370816508689927</v>
       </c>
       <c r="F10">
-        <v>2.451240019730619</v>
+        <v>2.812917734051723</v>
       </c>
       <c r="G10">
-        <v>0.002527616482589395</v>
+        <v>0.0007901168236800454</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.311151795353283</v>
+        <v>3.690356914123527</v>
       </c>
       <c r="L10">
-        <v>0.2306640182699766</v>
+        <v>0.3887839016492194</v>
       </c>
       <c r="M10">
-        <v>0.2962989841750527</v>
+        <v>0.3808595970806437</v>
       </c>
       <c r="N10">
-        <v>3.396164173540001</v>
+        <v>2.091765143406064</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.293137956132881</v>
+        <v>1.496856995103542</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1149478975028835</v>
+        <v>0.05427878282720755</v>
       </c>
       <c r="E11">
-        <v>0.14405305822849</v>
+        <v>0.1432910797989386</v>
       </c>
       <c r="F11">
-        <v>2.485536696830792</v>
+        <v>2.978222313570512</v>
       </c>
       <c r="G11">
-        <v>0.002524368729715178</v>
+        <v>0.0007842460592901273</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.382415361999961</v>
+        <v>3.984766277036044</v>
       </c>
       <c r="L11">
-        <v>0.2371073997377806</v>
+        <v>0.417803725571261</v>
       </c>
       <c r="M11">
-        <v>0.3019148095152389</v>
+        <v>0.4071376621328611</v>
       </c>
       <c r="N11">
-        <v>3.39502500060081</v>
+        <v>2.097308042434392</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.300399949649687</v>
+        <v>1.531790420426574</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1148211578882083</v>
+        <v>0.05374361691924179</v>
       </c>
       <c r="E12">
-        <v>0.1446776851010689</v>
+        <v>0.1456796339330921</v>
       </c>
       <c r="F12">
-        <v>2.498701060620562</v>
+        <v>3.041960878062099</v>
       </c>
       <c r="G12">
-        <v>0.002523161878719021</v>
+        <v>0.0007820335976116793</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.40949488719906</v>
+        <v>4.097517271308789</v>
       </c>
       <c r="L12">
-        <v>0.2395667183419476</v>
+        <v>0.4289243031641234</v>
       </c>
       <c r="M12">
-        <v>0.3040642131454092</v>
+        <v>0.4172037142301335</v>
       </c>
       <c r="N12">
-        <v>3.394709663160782</v>
+        <v>2.099908636594648</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.298831865243045</v>
+        <v>1.524248608987932</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1148483467246706</v>
+        <v>0.05385847836435431</v>
       </c>
       <c r="E13">
-        <v>0.1445433155523617</v>
+        <v>0.1451634404647457</v>
       </c>
       <c r="F13">
-        <v>2.495857994753351</v>
+        <v>3.028180473148808</v>
       </c>
       <c r="G13">
-        <v>0.002523420774710118</v>
+        <v>0.0007825096541374156</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.403658645614371</v>
+        <v>4.07317484107341</v>
       </c>
       <c r="L13">
-        <v>0.2390361983609353</v>
+        <v>0.4265231437332204</v>
       </c>
       <c r="M13">
-        <v>0.3036002860148415</v>
+        <v>0.4150304481201772</v>
       </c>
       <c r="N13">
-        <v>3.394772410206386</v>
+        <v>2.099325475605326</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.293733564091156</v>
+        <v>1.49972282683558</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1149374224376523</v>
+        <v>0.05423457702161016</v>
       </c>
       <c r="E14">
-        <v>0.1441045166441874</v>
+        <v>0.1434867988749815</v>
       </c>
       <c r="F14">
-        <v>2.486616185318951</v>
+        <v>2.983442390187918</v>
       </c>
       <c r="G14">
-        <v>0.002524268981091439</v>
+        <v>0.000784063838381103</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.384641328491341</v>
+        <v>3.994015865376355</v>
       </c>
       <c r="L14">
-        <v>0.2373093411549547</v>
+        <v>0.4187158814194589</v>
       </c>
       <c r="M14">
-        <v>0.3020911850464856</v>
+        <v>0.4079634086567339</v>
       </c>
       <c r="N14">
-        <v>3.39499672996439</v>
+        <v>2.097511667423419</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.290622668839717</v>
+        <v>1.484752741643831</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1149922965323356</v>
+        <v>0.05446609521896306</v>
       </c>
       <c r="E15">
-        <v>0.1438352841898265</v>
+        <v>0.1424648735752534</v>
       </c>
       <c r="F15">
-        <v>2.48097838192939</v>
+        <v>2.956192085338131</v>
       </c>
       <c r="G15">
-        <v>0.002524791524136795</v>
+        <v>0.0007850171410417792</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.373004894492453</v>
+        <v>3.945699366985309</v>
       </c>
       <c r="L15">
-        <v>0.2362541132729916</v>
+        <v>0.4139513729959532</v>
       </c>
       <c r="M15">
-        <v>0.3011697879999318</v>
+        <v>0.4036500806038248</v>
       </c>
       <c r="N15">
-        <v>3.395149254663934</v>
+        <v>2.096467396378898</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.272978829574157</v>
+        <v>1.399736457825327</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1153115456495115</v>
+        <v>0.05580986624117301</v>
       </c>
       <c r="E16">
-        <v>0.1422853741686083</v>
+        <v>0.1366806501601125</v>
       </c>
       <c r="F16">
-        <v>2.449023364705681</v>
+        <v>2.802266421159544</v>
       </c>
       <c r="G16">
-        <v>0.002527831956374576</v>
+        <v>0.0007905021104312297</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.306507576933257</v>
+        <v>3.671282766606737</v>
       </c>
       <c r="L16">
-        <v>0.2302456320492325</v>
+        <v>0.386904778989333</v>
       </c>
       <c r="M16">
-        <v>0.2959351690371221</v>
+        <v>0.3791575692032723</v>
       </c>
       <c r="N16">
-        <v>3.396254840990537</v>
+        <v>2.09147055039179</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.262318714485986</v>
+        <v>1.348232262876422</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1155116624743151</v>
+        <v>0.05664886723297613</v>
       </c>
       <c r="E17">
-        <v>0.1413281934693646</v>
+        <v>0.1331906663996207</v>
       </c>
       <c r="F17">
-        <v>2.429734217792458</v>
+        <v>2.709716317594115</v>
       </c>
       <c r="G17">
-        <v>0.002529738264852992</v>
+        <v>0.0007938883935847503</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.265878914584789</v>
+        <v>3.504981123889991</v>
       </c>
       <c r="L17">
-        <v>0.2265940131647852</v>
+        <v>0.3705273067300254</v>
       </c>
       <c r="M17">
-        <v>0.2927645316007315</v>
+        <v>0.36432166944833</v>
       </c>
       <c r="N17">
-        <v>3.397139403233055</v>
+        <v>2.089249289529903</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.256247545027662</v>
+        <v>1.318833145925282</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1156283310526973</v>
+        <v>0.05713661065079378</v>
       </c>
       <c r="E18">
-        <v>0.1407752822032275</v>
+        <v>0.1312026161657087</v>
       </c>
       <c r="F18">
-        <v>2.418754799404326</v>
+        <v>2.657130256430889</v>
       </c>
       <c r="G18">
-        <v>0.002530849867085608</v>
+        <v>0.0007958446629030306</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.242570721971617</v>
+        <v>3.410020808567253</v>
       </c>
       <c r="L18">
-        <v>0.2245063144577415</v>
+        <v>0.3611808320057008</v>
       </c>
       <c r="M18">
-        <v>0.2909557970226615</v>
+        <v>0.3558536302045923</v>
       </c>
       <c r="N18">
-        <v>3.39772389325951</v>
+        <v>2.088267860963953</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.254202303373063</v>
+        <v>1.30891639980058</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1156681019436796</v>
+        <v>0.05730262192317426</v>
       </c>
       <c r="E19">
-        <v>0.1405876668476296</v>
+        <v>0.1305326139975378</v>
       </c>
       <c r="F19">
-        <v>2.415057113732274</v>
+        <v>2.639432528162246</v>
       </c>
       <c r="G19">
-        <v>0.002531228841180971</v>
+        <v>0.0007965085568205765</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.234689293733879</v>
+        <v>3.377982352076401</v>
       </c>
       <c r="L19">
-        <v>0.2238016202507538</v>
+        <v>0.3580283845390682</v>
       </c>
       <c r="M19">
-        <v>0.2903459552273375</v>
+        <v>0.3529972864037987</v>
       </c>
       <c r="N19">
-        <v>3.397934785061622</v>
+        <v>2.087985158985717</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.263447267712792</v>
+        <v>1.353691399077974</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1154901975138714</v>
+        <v>0.05655901434608523</v>
       </c>
       <c r="E20">
-        <v>0.1414303312402936</v>
+        <v>0.133560136673907</v>
       </c>
       <c r="F20">
-        <v>2.43177565241777</v>
+        <v>2.719500582980487</v>
       </c>
       <c r="G20">
-        <v>0.002529533768597935</v>
+        <v>0.0007935270462662838</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.270197651085596</v>
+        <v>3.522611306882879</v>
       </c>
       <c r="L20">
-        <v>0.2269814280344207</v>
+        <v>0.3722629982254375</v>
       </c>
       <c r="M20">
-        <v>0.2931005059496599</v>
+        <v>0.3658941332280605</v>
       </c>
       <c r="N20">
-        <v>3.397037401641214</v>
+        <v>2.089454786025314</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.295228566231316</v>
+        <v>1.506915580125053</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1149111935765923</v>
+        <v>0.05412386736133357</v>
       </c>
       <c r="E21">
-        <v>0.14423349727603</v>
+        <v>0.1439781994673055</v>
       </c>
       <c r="F21">
-        <v>2.489325919027493</v>
+        <v>2.996550878192664</v>
       </c>
       <c r="G21">
-        <v>0.002524019218948239</v>
+        <v>0.0007836070660000808</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.3902246262208</v>
+        <v>4.01723084114559</v>
       </c>
       <c r="L21">
-        <v>0.237816035263009</v>
+        <v>0.4210053481226765</v>
       </c>
       <c r="M21">
-        <v>0.3025338254536507</v>
+        <v>0.4100359248106855</v>
       </c>
       <c r="N21">
-        <v>3.394927689707984</v>
+        <v>2.098030431398101</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.316534973661817</v>
+        <v>1.609374200084574</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1145467696973483</v>
+        <v>0.05258311329331278</v>
       </c>
       <c r="E22">
-        <v>0.1460450662916557</v>
+        <v>0.1510077163588832</v>
       </c>
       <c r="F22">
-        <v>2.527970208222598</v>
+        <v>3.18434902876092</v>
       </c>
       <c r="G22">
-        <v>0.002520549161706307</v>
+        <v>0.0007771847655088439</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.469215125112328</v>
+        <v>4.347968694839778</v>
       </c>
       <c r="L22">
-        <v>0.2450098968630101</v>
+        <v>0.4536368150832999</v>
       </c>
       <c r="M22">
-        <v>0.3088320144231105</v>
+        <v>0.4395638656265035</v>
       </c>
       <c r="N22">
-        <v>3.394225418250301</v>
+        <v>2.106583567240676</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.305114392858513</v>
+        <v>1.554461686854722</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1147399877405419</v>
+        <v>0.05340054769602176</v>
       </c>
       <c r="E23">
-        <v>0.1450800404104449</v>
+        <v>0.1472331552530406</v>
       </c>
       <c r="F23">
-        <v>2.50725030905997</v>
+        <v>3.083451194341166</v>
       </c>
       <c r="G23">
-        <v>0.002522388974143132</v>
+        <v>0.0007806076828266143</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.427006035469446</v>
+        <v>4.170695308114034</v>
       </c>
       <c r="L23">
-        <v>0.2411600511252772</v>
+        <v>0.436143509863669</v>
       </c>
       <c r="M23">
-        <v>0.3054583854466131</v>
+        <v>0.4237370578111452</v>
       </c>
       <c r="N23">
-        <v>3.394538215667268</v>
+        <v>2.101732662827729</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.262936869768509</v>
+        <v>1.351222668729491</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1154998967802001</v>
+        <v>0.0565996200949499</v>
       </c>
       <c r="E24">
-        <v>0.1413841629090697</v>
+        <v>0.1333930424023393</v>
       </c>
       <c r="F24">
-        <v>2.43085237671977</v>
+        <v>2.715075188855792</v>
       </c>
       <c r="G24">
-        <v>0.002529626172482576</v>
+        <v>0.0007936903818310332</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.26824499540021</v>
+        <v>3.514638694485711</v>
       </c>
       <c r="L24">
-        <v>0.2268062414411247</v>
+        <v>0.3714780780017861</v>
       </c>
       <c r="M24">
-        <v>0.2929485680050377</v>
+        <v>0.3651830324116361</v>
       </c>
       <c r="N24">
-        <v>3.397083280015309</v>
+        <v>2.089360963627612</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.219745363252144</v>
+        <v>1.140442798139475</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1163794609581466</v>
+        <v>0.06024626501270447</v>
       </c>
       <c r="E25">
-        <v>0.1373067288337122</v>
+        <v>0.1191816788125717</v>
       </c>
       <c r="F25">
-        <v>2.352844838486533</v>
+        <v>2.341996938625044</v>
       </c>
       <c r="G25">
-        <v>0.002538012178442696</v>
+        <v>0.0008081367386344462</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.099296781303536</v>
+        <v>2.832849035407008</v>
       </c>
       <c r="L25">
-        <v>0.2118053314559063</v>
+        <v>0.3044777995436903</v>
       </c>
       <c r="M25">
-        <v>0.2800255455665663</v>
+        <v>0.3044700281669037</v>
       </c>
       <c r="N25">
-        <v>3.402721836176283</v>
+        <v>2.087200764066537</v>
       </c>
       <c r="O25">
         <v>0</v>
